--- a/SonarExcel/SonarQube_2019-01-25.xlsx
+++ b/SonarExcel/SonarQube_2019-01-25.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="72">
   <si>
     <t xml:space="preserve">APIs            </t>
   </si>
@@ -20,13 +20,19 @@
     <t xml:space="preserve">Auditing               </t>
   </si>
   <si>
-    <t>78.9%</t>
+    <t>97.60%</t>
+  </si>
+  <si>
+    <t>0.0%</t>
   </si>
   <si>
     <t xml:space="preserve">Lottery Validations    </t>
   </si>
   <si>
-    <t>74.9%</t>
+    <t>72.40%</t>
+  </si>
+  <si>
+    <t>44.5%</t>
   </si>
   <si>
     <t xml:space="preserve">Users Operators </t>
@@ -35,145 +41,193 @@
     <t>Winning Certificates UI</t>
   </si>
   <si>
+    <t>49.00%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auth UI                </t>
+  </si>
+  <si>
+    <t>70.00%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promotion Engine UI    </t>
+  </si>
+  <si>
+    <t>19.2%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATS Service            </t>
+  </si>
+  <si>
+    <t>44.50%</t>
+  </si>
+  <si>
+    <t>1.2%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAM                    </t>
+  </si>
+  <si>
+    <t>49.80%</t>
+  </si>
+  <si>
+    <t>97.6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alerting               </t>
+  </si>
+  <si>
+    <t>19.20%</t>
+  </si>
+  <si>
+    <t>DUCK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EJK adaptor            </t>
+  </si>
+  <si>
+    <t>15.20%</t>
+  </si>
+  <si>
+    <t>Game Management Service</t>
+  </si>
+  <si>
+    <t>39.10%</t>
+  </si>
+  <si>
     <t>69.0%</t>
   </si>
   <si>
-    <t xml:space="preserve">Auth UI                </t>
+    <t xml:space="preserve">IGMS Service           </t>
+  </si>
+  <si>
+    <t>10.40%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Messaging              </t>
+  </si>
+  <si>
+    <t>23.60%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promotion Engine       </t>
+  </si>
+  <si>
+    <t>18.90%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Messaging UI           </t>
+  </si>
+  <si>
+    <t>4.00%</t>
+  </si>
+  <si>
+    <t>15.2%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alerting UI            </t>
+  </si>
+  <si>
+    <t>1.20%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lottery UI             </t>
+  </si>
+  <si>
+    <t>0.70%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IGMS UI                </t>
+  </si>
+  <si>
+    <t>0.30%</t>
+  </si>
+  <si>
+    <t>30.0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATS UI                 </t>
+  </si>
+  <si>
+    <t>0.00%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cluster Management UI  </t>
+  </si>
+  <si>
+    <t>10.4%</t>
+  </si>
+  <si>
+    <t>Terminal Transactions U</t>
+  </si>
+  <si>
+    <t>0.3%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraud UI               </t>
+  </si>
+  <si>
+    <t>Lottery Risk Management</t>
+  </si>
+  <si>
+    <t>Terminals &amp; User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terminal Adaptor       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accounting             </t>
+  </si>
+  <si>
+    <t>70.8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">API Gateway J          </t>
+  </si>
+  <si>
+    <t>23.6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auth                   </t>
+  </si>
+  <si>
+    <t>4.0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game Scheduler         </t>
+  </si>
+  <si>
+    <t>49.8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information Store      </t>
+  </si>
+  <si>
+    <t>18.9%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraud                  </t>
+  </si>
+  <si>
+    <t>No Coverage</t>
   </si>
   <si>
     <t>66.1%</t>
   </si>
   <si>
-    <t xml:space="preserve">Promotion Engine UI    </t>
-  </si>
-  <si>
-    <t>49.8%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATS Service            </t>
+    <t xml:space="preserve">Auditing UI            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMS UI                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulse UI               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMS                    </t>
   </si>
   <si>
     <t>49.0%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAM                    </t>
-  </si>
-  <si>
-    <t>44.5%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alerting               </t>
-  </si>
-  <si>
-    <t>30.3%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EJK adaptor            </t>
-  </si>
-  <si>
-    <t>23.6%</t>
-  </si>
-  <si>
-    <t>Game Management Service</t>
-  </si>
-  <si>
-    <t>19.2%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IGMS Service           </t>
-  </si>
-  <si>
-    <t>18.9%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Messaging              </t>
-  </si>
-  <si>
-    <t>18.8%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Promotion Engine       </t>
-  </si>
-  <si>
-    <t>15.2%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Messaging UI           </t>
-  </si>
-  <si>
-    <t>10.4%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alerting UI            </t>
-  </si>
-  <si>
-    <t>4.0%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lottery UI             </t>
-  </si>
-  <si>
-    <t>1.2%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IGMS UI                </t>
-  </si>
-  <si>
-    <t>0.3%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATS UI                 </t>
-  </si>
-  <si>
-    <t>0.0%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cluster Management UI  </t>
-  </si>
-  <si>
-    <t>Terminal Transactions U</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fraud UI               </t>
-  </si>
-  <si>
-    <t>Lottery Risk Management</t>
-  </si>
-  <si>
-    <t>Terminals &amp; User</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terminal Adaptor       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accounting             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">API Gateway J          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auth                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game Scheduler         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Information Store      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fraud                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auditing UI            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DMS UI                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulse UI               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DMS                    </t>
   </si>
 </sst>
 </file>
@@ -233,14 +287,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
@@ -445,7 +493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -454,9 +502,8 @@
     <col min="1" max="1" width="5.859375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="16.4375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="25.73828125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="6.6796875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="21.484375" customWidth="true"/>
-    <col min="5" max="5" width="21.484375" customWidth="true"/>
+    <col min="4" max="4" width="13.671875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="13.671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -469,8 +516,11 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2">
@@ -481,10 +531,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="4" t="s">
         <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -492,13 +545,16 @@
         <v>3.0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -506,13 +562,16 @@
         <v>4.0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -520,13 +579,16 @@
         <v>5.0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>11</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -537,10 +599,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -551,10 +616,13 @@
         <v>0</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8">
@@ -565,10 +633,13 @@
         <v>0</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9">
@@ -579,10 +650,13 @@
         <v>0</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +667,13 @@
         <v>0</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11">
@@ -607,10 +684,13 @@
         <v>0</v>
       </c>
       <c r="C11" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="22" t="s">
         <v>22</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="12">
@@ -621,10 +701,13 @@
         <v>0</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13">
@@ -635,10 +718,13 @@
         <v>0</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14">
@@ -646,13 +732,16 @@
         <v>14.0</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15">
@@ -660,13 +749,16 @@
         <v>15.0</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>31</v>
+        <v>37</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -674,13 +766,16 @@
         <v>16.0</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="32" t="s">
-        <v>33</v>
+        <v>39</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17">
@@ -688,13 +783,16 @@
         <v>17.0</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>35</v>
+        <v>41</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="18">
@@ -702,13 +800,16 @@
         <v>18.0</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -716,13 +817,16 @@
         <v>19.0</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="38" t="s">
-        <v>37</v>
+        <v>46</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="20">
@@ -730,13 +834,16 @@
         <v>20.0</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="40" t="s">
-        <v>37</v>
+        <v>48</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="21">
@@ -744,13 +851,16 @@
         <v>21.0</v>
       </c>
       <c r="B21" s="41" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="42" t="s">
-        <v>37</v>
+        <v>50</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -758,13 +868,16 @@
         <v>22.0</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="44" t="s">
-        <v>37</v>
+        <v>51</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -772,13 +885,16 @@
         <v>23.0</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="46" t="s">
-        <v>37</v>
+        <v>53</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="46" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -789,10 +905,13 @@
         <v>0</v>
       </c>
       <c r="C24" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="48" t="s">
-        <v>37</v>
+        <v>54</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="48" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="25">
@@ -803,10 +922,13 @@
         <v>0</v>
       </c>
       <c r="C25" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="50" t="s">
-        <v>37</v>
+      <c r="E25" s="50" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="26">
@@ -817,10 +939,13 @@
         <v>0</v>
       </c>
       <c r="C26" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" s="52" t="s">
-        <v>37</v>
+        <v>58</v>
+      </c>
+      <c r="D26" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="52" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="27">
@@ -831,10 +956,13 @@
         <v>0</v>
       </c>
       <c r="C27" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="54" t="s">
-        <v>37</v>
+        <v>60</v>
+      </c>
+      <c r="D27" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="54" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="28">
@@ -845,10 +973,13 @@
         <v>0</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="F28" s="56" t="s">
-        <v>37</v>
+        <v>62</v>
+      </c>
+      <c r="D28" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="56" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="29">
@@ -859,10 +990,13 @@
         <v>0</v>
       </c>
       <c r="C29" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="58" t="s">
-        <v>37</v>
+        <v>64</v>
+      </c>
+      <c r="D29" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="58" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="30">
@@ -870,13 +1004,16 @@
         <v>30.0</v>
       </c>
       <c r="B30" s="59" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C30" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="F30" s="60" t="s">
-        <v>37</v>
+        <v>67</v>
+      </c>
+      <c r="D30" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="60" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="31">
@@ -884,13 +1021,16 @@
         <v>31.0</v>
       </c>
       <c r="B31" s="61" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C31" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="F31" s="62" t="s">
-        <v>37</v>
+        <v>68</v>
+      </c>
+      <c r="D31" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="62" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -898,13 +1038,16 @@
         <v>32.0</v>
       </c>
       <c r="B32" s="63" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C32" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="F32" s="64" t="s">
-        <v>37</v>
+        <v>69</v>
+      </c>
+      <c r="D32" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="64" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -915,24 +1058,13 @@
         <v>0</v>
       </c>
       <c r="C33" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="F33" s="66" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="67" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="B34" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="F34" s="68" t="s">
-        <v>37</v>
+        <v>70</v>
+      </c>
+      <c r="D33" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="66" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/SonarExcel/SonarQube_2019-01-25.xlsx
+++ b/SonarExcel/SonarQube_2019-01-25.xlsx
@@ -250,7 +250,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -262,10 +262,21 @@
       <name val="Arial"/>
       <sz val="10.0"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <b val="true"/>
       <color indexed="8"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,19 +285,22 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor indexed="9"/>
+        <fgColor indexed="16"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="16"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor indexed="9"/>
-        <bgColor indexed="10"/>
+        <fgColor indexed="42"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="10"/>
+        <fgColor indexed="42"/>
       </patternFill>
     </fill>
   </fills>
@@ -302,208 +316,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -525,33 +350,33 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>1.0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -559,546 +384,546 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="n">
+      <c r="A3" s="1" t="n">
         <v>2.0</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="n">
+      <c r="A4" s="1" t="n">
         <v>3.0</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="n">
+      <c r="A5" s="1" t="n">
         <v>4.0</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="10" t="n">
+      <c r="A6" s="1" t="n">
         <v>5.0</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="12" t="n">
+      <c r="A7" s="1" t="n">
         <v>6.0</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="14" t="n">
+      <c r="A8" s="1" t="n">
         <v>7.0</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="14" t="s">
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="16" t="n">
+      <c r="A9" s="1" t="n">
         <v>8.0</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="16" t="s">
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="18" t="n">
+      <c r="A10" s="1" t="n">
         <v>9.0</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="18" t="s">
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="20" t="n">
+      <c r="A11" s="1" t="n">
         <v>10.0</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="20" t="s">
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="22" t="n">
+      <c r="A12" s="1" t="n">
         <v>11.0</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="22" t="s">
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="24" t="n">
+      <c r="A13" s="1" t="n">
         <v>12.0</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="24" t="s">
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="26" t="n">
+      <c r="A14" s="1" t="n">
         <v>13.0</v>
       </c>
-      <c r="B14" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="26" t="s">
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="28" t="n">
+      <c r="A15" s="1" t="n">
         <v>14.0</v>
       </c>
-      <c r="B15" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="28" t="s">
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="30" t="n">
+      <c r="A16" s="1" t="n">
         <v>15.0</v>
       </c>
-      <c r="B16" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="30" t="s">
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="32" t="n">
+      <c r="A17" s="1" t="n">
         <v>16.0</v>
       </c>
-      <c r="B17" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="32" t="s">
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="34" t="n">
+      <c r="A18" s="1" t="n">
         <v>17.0</v>
       </c>
-      <c r="B18" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="34" t="s">
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="35" t="s">
+      <c r="D18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="36" t="n">
+      <c r="A19" s="1" t="n">
         <v>18.0</v>
       </c>
-      <c r="B19" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="36" t="s">
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="37" t="s">
-        <v>56</v>
+      <c r="D19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="38" t="n">
+      <c r="A20" s="1" t="n">
         <v>19.0</v>
       </c>
-      <c r="B20" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="38" t="s">
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="39" t="s">
-        <v>56</v>
+      <c r="D20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="40" t="n">
+      <c r="A21" s="1" t="n">
         <v>20.0</v>
       </c>
-      <c r="B21" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="40" t="s">
+      <c r="B21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="41" t="s">
-        <v>56</v>
+      <c r="D21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="42" t="n">
+      <c r="A22" s="1" t="n">
         <v>21.0</v>
       </c>
-      <c r="B22" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="42" t="s">
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="43" t="s">
-        <v>56</v>
+      <c r="D22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="44" t="n">
+      <c r="A23" s="1" t="n">
         <v>22.0</v>
       </c>
-      <c r="B23" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="44" t="s">
+      <c r="B23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="45" t="s">
-        <v>56</v>
+      <c r="D23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="46" t="n">
+      <c r="A24" s="1" t="n">
         <v>23.0</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="47" t="s">
-        <v>56</v>
+      <c r="D24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="48" t="n">
+      <c r="A25" s="1" t="n">
         <v>24.0</v>
       </c>
-      <c r="B25" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="48" t="s">
+      <c r="B25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="49" t="s">
+      <c r="D25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="49" t="s">
-        <v>56</v>
+      <c r="E25" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="50" t="n">
+      <c r="A26" s="1" t="n">
         <v>25.0</v>
       </c>
-      <c r="B26" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="50" t="s">
+      <c r="B26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="51" t="s">
-        <v>56</v>
+      <c r="D26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="52" t="n">
+      <c r="A27" s="1" t="n">
         <v>26.0</v>
       </c>
-      <c r="B27" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="52" t="s">
+      <c r="B27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="53" t="s">
-        <v>56</v>
+      <c r="D27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="54" t="n">
+      <c r="A28" s="1" t="n">
         <v>27.0</v>
       </c>
-      <c r="B28" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="54" t="s">
+      <c r="B28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="55" t="s">
+      <c r="D28" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="55" t="s">
+      <c r="E28" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="56" t="n">
+      <c r="A29" s="1" t="n">
         <v>28.0</v>
       </c>
-      <c r="B29" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="56" t="s">
+      <c r="B29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="57" t="s">
+      <c r="D29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="58" t="n">
+      <c r="A30" s="1" t="n">
         <v>29.0</v>
       </c>
-      <c r="B30" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="58" t="s">
+      <c r="B30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="59" t="s">
+      <c r="D30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="60" t="n">
+      <c r="A31" s="1" t="n">
         <v>30.0</v>
       </c>
-      <c r="B31" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="60" t="s">
+      <c r="B31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="61" t="s">
+      <c r="D31" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="61" t="s">
+      <c r="E31" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="62" t="n">
+      <c r="A32" s="1" t="n">
         <v>31.0</v>
       </c>
-      <c r="B32" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="62" t="s">
+      <c r="B32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="63" t="s">
+      <c r="D32" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="63" t="s">
+      <c r="E32" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="64" t="n">
+      <c r="A33" s="1" t="n">
         <v>32.0</v>
       </c>
-      <c r="B33" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="64" t="s">
+      <c r="B33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D33" s="65" t="s">
+      <c r="D33" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E33" s="65" t="s">
+      <c r="E33" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="66" t="n">
+      <c r="A34" s="1" t="n">
         <v>33.0</v>
       </c>
-      <c r="B34" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="66" t="s">
+      <c r="B34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D34" s="67" t="s">
+      <c r="D34" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="67" t="s">
+      <c r="E34" s="3" t="s">
         <v>70</v>
       </c>
     </row>

--- a/SonarExcel/SonarQube_2019-01-25.xlsx
+++ b/SonarExcel/SonarQube_2019-01-25.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="64">
   <si>
     <t>NO</t>
   </si>
@@ -38,16 +38,13 @@
     <t>97.60%</t>
   </si>
   <si>
-    <t>97.6%</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lottery Validations    </t>
   </si>
   <si>
     <t>72.40%</t>
   </si>
   <si>
-    <t>70.8%</t>
+    <t>70.80%</t>
   </si>
   <si>
     <t xml:space="preserve">Users Operators </t>
@@ -59,49 +56,43 @@
     <t>70.00%</t>
   </si>
   <si>
-    <t>69.0%</t>
+    <t>69.00%</t>
   </si>
   <si>
     <t xml:space="preserve">Auth UI                </t>
   </si>
   <si>
-    <t>66.1%</t>
+    <t>66.10%</t>
   </si>
   <si>
     <t xml:space="preserve">Promotion Engine UI    </t>
   </si>
   <si>
+    <t>49.70%</t>
+  </si>
+  <si>
     <t>49.80%</t>
   </si>
   <si>
-    <t>49.8%</t>
-  </si>
-  <si>
     <t xml:space="preserve">ATS Service            </t>
   </si>
   <si>
     <t>49.00%</t>
   </si>
   <si>
-    <t>49.0%</t>
-  </si>
-  <si>
     <t xml:space="preserve">NAM                    </t>
   </si>
   <si>
     <t>44.50%</t>
   </si>
   <si>
-    <t>44.5%</t>
-  </si>
-  <si>
     <t xml:space="preserve">Alerting               </t>
   </si>
   <si>
     <t>39.10%</t>
   </si>
   <si>
-    <t>30.0%</t>
+    <t>30.00%</t>
   </si>
   <si>
     <t xml:space="preserve">EJK adaptor            </t>
@@ -110,81 +101,54 @@
     <t>23.60%</t>
   </si>
   <si>
-    <t>23.6%</t>
-  </si>
-  <si>
     <t>Game Management Service</t>
   </si>
   <si>
     <t>19.20%</t>
   </si>
   <si>
-    <t>19.2%</t>
-  </si>
-  <si>
     <t xml:space="preserve">IGMS Service           </t>
   </si>
   <si>
     <t>18.90%</t>
   </si>
   <si>
-    <t>18.9%</t>
-  </si>
-  <si>
     <t xml:space="preserve">Messaging              </t>
   </si>
   <si>
     <t>15.20%</t>
   </si>
   <si>
-    <t>15.2%</t>
-  </si>
-  <si>
     <t xml:space="preserve">Promotion Engine       </t>
   </si>
   <si>
     <t>10.40%</t>
   </si>
   <si>
-    <t>10.4%</t>
-  </si>
-  <si>
     <t xml:space="preserve">Messaging UI           </t>
   </si>
   <si>
     <t>4.00%</t>
   </si>
   <si>
-    <t>4.0%</t>
-  </si>
-  <si>
     <t xml:space="preserve">Alerting UI            </t>
   </si>
   <si>
     <t>1.20%</t>
   </si>
   <si>
-    <t>1.2%</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lottery UI             </t>
   </si>
   <si>
     <t>0.30%</t>
   </si>
   <si>
-    <t>0.3%</t>
-  </si>
-  <si>
     <t xml:space="preserve">IGMS UI                </t>
   </si>
   <si>
     <t>0.00%</t>
   </si>
   <si>
-    <t>0.0%</t>
-  </si>
-  <si>
     <t xml:space="preserve">ATS UI                 </t>
   </si>
   <si>
@@ -222,9 +186,6 @@
   </si>
   <si>
     <t>0.70%</t>
-  </si>
-  <si>
-    <t>DUCK</t>
   </si>
   <si>
     <t xml:space="preserve">Information Store      </t>
@@ -316,11 +277,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
+      <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="right"/>
     </xf>
@@ -350,19 +312,19 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -376,11 +338,11 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
+      <c r="E2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -391,13 +353,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -405,16 +367,16 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -422,16 +384,16 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -439,16 +401,16 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -459,13 +421,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>23</v>
+      <c r="E7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -476,13 +438,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9">
@@ -493,13 +455,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
@@ -510,13 +472,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11">
@@ -527,13 +489,13 @@
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12">
@@ -544,13 +506,13 @@
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -561,13 +523,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14">
@@ -578,13 +540,13 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15">
@@ -592,16 +554,16 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16">
@@ -609,16 +571,16 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="17">
@@ -626,16 +588,16 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="18">
@@ -643,16 +605,16 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>56</v>
+        <v>43</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -660,16 +622,16 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="20">
@@ -677,16 +639,16 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>55</v>
+        <v>46</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="21">
@@ -694,16 +656,16 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="22">
@@ -711,16 +673,16 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
@@ -728,16 +690,16 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="24">
@@ -745,16 +707,16 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="25">
@@ -765,13 +727,13 @@
         <v>5</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="26">
@@ -782,13 +744,13 @@
         <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="27">
@@ -799,13 +761,13 @@
         <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>55</v>
+      <c r="D27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="28">
@@ -816,13 +778,13 @@
         <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +795,13 @@
         <v>5</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="30">
@@ -850,13 +812,13 @@
         <v>5</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>70</v>
+        <v>59</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="31">
@@ -864,16 +826,16 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="32">
@@ -881,16 +843,16 @@
         <v>31.0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="33">
@@ -898,16 +860,16 @@
         <v>32.0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="34">
@@ -918,13 +880,13 @@
         <v>5</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/SonarExcel/SonarQube_2019-01-25.xlsx
+++ b/SonarExcel/SonarQube_2019-01-25.xlsx
@@ -211,7 +211,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -228,21 +228,36 @@
       <name val="Arial"/>
       <sz val="10.0"/>
       <b val="true"/>
-      <color indexed="9"/>
     </font>
     <font>
       <name val="Arial"/>
       <sz val="10.0"/>
+      <color indexed="9"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
       <color indexed="8"/>
+      <b val="true"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="1"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
@@ -256,12 +271,12 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor indexed="42"/>
+        <fgColor indexed="11"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor indexed="11"/>
       </patternFill>
     </fill>
   </fills>
@@ -279,14 +294,16 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -305,8 +322,8 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="5.859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="16.4375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="25.73828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.4609375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="27.0234375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="13.671875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="13.671875" customWidth="true" bestFit="true"/>
   </cols>
@@ -341,7 +358,7 @@
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -426,7 +443,7 @@
       <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -443,7 +460,7 @@
       <c r="D8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -477,7 +494,7 @@
       <c r="D10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -494,7 +511,7 @@
       <c r="D11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -511,7 +528,7 @@
       <c r="D12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -528,7 +545,7 @@
       <c r="D13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -545,7 +562,7 @@
       <c r="D14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -562,7 +579,7 @@
       <c r="D15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -579,7 +596,7 @@
       <c r="D16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -596,7 +613,7 @@
       <c r="D17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -613,7 +630,7 @@
       <c r="D18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -630,7 +647,7 @@
       <c r="D19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -647,7 +664,7 @@
       <c r="D20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -664,7 +681,7 @@
       <c r="D21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -681,7 +698,7 @@
       <c r="D22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -698,7 +715,7 @@
       <c r="D23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -715,7 +732,7 @@
       <c r="D24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -732,7 +749,7 @@
       <c r="D25" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -749,7 +766,7 @@
       <c r="D26" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -766,7 +783,7 @@
       <c r="D27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -800,7 +817,7 @@
       <c r="D29" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -817,7 +834,7 @@
       <c r="D30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -834,7 +851,7 @@
       <c r="D31" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -851,7 +868,7 @@
       <c r="D32" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -868,7 +885,7 @@
       <c r="D33" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -885,7 +902,7 @@
       <c r="D34" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="2" t="s">
         <v>53</v>
       </c>
     </row>
